--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,155 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
   <si>
-    <t>Nom: RAMALALAHARISON Tokiniaina</t>
+    <t xml:space="preserve">Nom: RAMALALAHARISON Tokiniaina</t>
   </si>
   <si>
-    <t>ETU:002180</t>
+    <t xml:space="preserve">ETU:002180</t>
   </si>
   <si>
-    <t>Catégorie</t>
+    <t xml:space="preserve">Catégorie</t>
   </si>
   <si>
-    <t>Taches</t>
+    <t xml:space="preserve">Taches</t>
   </si>
   <si>
-    <t>Type</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t>Estimation</t>
+    <t xml:space="preserve">Estimation</t>
   </si>
   <si>
-    <t>Temps passé</t>
+    <t xml:space="preserve">Temps passé</t>
   </si>
   <si>
-    <t>Reste à faire</t>
+    <t xml:space="preserve">Reste à faire</t>
   </si>
   <si>
-    <t>Avancement</t>
+    <t xml:space="preserve">Avancement</t>
   </si>
   <si>
-    <t>Conception</t>
+    <t xml:space="preserve">Conception</t>
   </si>
   <si>
-    <t>Conception/création affichage template</t>
+    <t xml:space="preserve">Conception/création affichage template</t>
   </si>
   <si>
-    <t>Affichage</t>
+    <t xml:space="preserve">Affichage</t>
   </si>
   <si>
-    <t>Conception/création tables et view</t>
+    <t xml:space="preserve">Conception/création tables et view</t>
   </si>
   <si>
-    <t>Base de données</t>
+    <t xml:space="preserve">Base de données</t>
   </si>
   <si>
-    <t>Authentification utilisateur (login)</t>
+    <t xml:space="preserve">Authentification utilisateur (login)</t>
   </si>
   <si>
-    <t>Métier</t>
+    <t xml:space="preserve">Métier</t>
   </si>
   <si>
-    <t>Client</t>
+    <t xml:space="preserve">Client</t>
   </si>
   <si>
-    <t>Liste des produits</t>
+    <t xml:space="preserve">Liste des types de maisons</t>
   </si>
   <si>
-    <t>x</t>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche simple </t>
+    <t xml:space="preserve">Liste des finitions</t>
   </si>
   <si>
-    <t>Recherche mutlicritères</t>
+    <t xml:space="preserve">Création demande devis</t>
   </si>
   <si>
-    <t>Ajout d'un produit dans le panier</t>
+    <t xml:space="preserve">Liste demande devis client</t>
   </si>
   <si>
-    <t>Ajout argent dans le porte-feuille</t>
+    <t xml:space="preserve">Détails de devis </t>
   </si>
   <si>
-    <t>Paiement panier dans le porte-feuille</t>
+    <t xml:space="preserve">Exportation pdf détails devis </t>
   </si>
   <si>
-    <t>Fiche produit avec quantite de stock</t>
+    <t xml:space="preserve">Payement devis du client</t>
   </si>
   <si>
-    <t>Administration</t>
+    <t xml:space="preserve">Administration</t>
   </si>
   <si>
-    <t>Validation argent dans le porte-feuille du client</t>
+    <t xml:space="preserve">Validation argent dans le porte-feuille du client</t>
   </si>
   <si>
-    <t>Stock des produits</t>
+    <t xml:space="preserve">Stock des produits</t>
   </si>
   <si>
-    <t>Gestion de recettes (ajout recette)</t>
+    <t xml:space="preserve">Gestion de recettes (ajout recette)</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage des recettes </t>
   </si>
   <si>
-    <t>Fiche des recettes</t>
+    <t xml:space="preserve">Fiche des recettes</t>
   </si>
   <si>
-    <t>Ajout des produits dans le panier (panier coté base)</t>
+    <t xml:space="preserve">Ajout des produits dans le panier (panier coté base)</t>
   </si>
   <si>
-    <t>Ajout des recettes dans le panier (avec conditionnement)</t>
+    <t xml:space="preserve">Ajout des recettes dans le panier (avec conditionnement)</t>
   </si>
   <si>
-    <t>Statistiques de vente produit</t>
+    <t xml:space="preserve">Statistiques de vente produit</t>
   </si>
   <si>
-    <t>Statistiques de vente recette</t>
+    <t xml:space="preserve">Statistiques de vente recette</t>
   </si>
   <si>
-    <t>Paiement panier</t>
+    <t xml:space="preserve">Paiement panier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00\ %"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,296 +182,190 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0000FF"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.44"/>
-    <col customWidth="1" min="2" max="2" width="73.44"/>
-    <col customWidth="1" min="3" max="3" width="20.33"/>
-    <col customWidth="1" min="4" max="4" width="27.44"/>
-    <col customWidth="1" min="5" max="5" width="22.33"/>
-    <col customWidth="1" min="6" max="6" width="19.0"/>
-    <col customWidth="1" min="7" max="7" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.89"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -469,7 +388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -479,18 +398,18 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:F10" si="1">D9-E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" ref="G9:G67" si="2">(E9/(E9+F9))</f>
+      <c r="D9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <f aca="false">D9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <f aca="false">(E9/(E9+F9))</f>
         <v>1</v>
       </c>
       <c r="H9" s="5"/>
@@ -513,7 +432,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -523,18 +442,18 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
+      <c r="D10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <f aca="false">D10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <f aca="false">(E10/(E10+F10))</f>
         <v>1</v>
       </c>
       <c r="H10" s="5"/>
@@ -557,25 +476,25 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="2"/>
+      <c r="D11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <f aca="false">(E11/(E11+F11))</f>
         <v>1</v>
       </c>
       <c r="H11" s="5"/>
@@ -598,25 +517,25 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <f aca="false">(E12/(E12+F12))</f>
         <v>1</v>
       </c>
       <c r="H12" s="5"/>
@@ -639,25 +558,25 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
+      <c r="D13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <f aca="false">(E13/(E13+F13))</f>
         <v>1</v>
       </c>
       <c r="H13" s="5"/>
@@ -680,7 +599,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -690,17 +609,17 @@
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="2"/>
+      <c r="D14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <f aca="false">(E14/(E14+F14))</f>
         <v>1</v>
       </c>
       <c r="H14" s="5"/>
@@ -723,7 +642,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -733,18 +652,18 @@
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F15" s="3">
-        <f>D15-E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="2"/>
+      <c r="D15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <f aca="false">D15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <f aca="false">(E15/(E15+F15))</f>
         <v>1</v>
       </c>
       <c r="H15" s="5"/>
@@ -767,7 +686,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -777,17 +696,17 @@
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="2"/>
+      <c r="D16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <f aca="false">(E16/(E16+F16))</f>
         <v>1</v>
       </c>
       <c r="H16" s="5"/>
@@ -812,7 +731,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -822,18 +741,18 @@
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F17" s="3">
-        <f>D17-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="2"/>
+      <c r="D17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <f aca="false">D17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <f aca="false">(E17/(E17+F17))</f>
         <v>1</v>
       </c>
       <c r="H17" s="5"/>
@@ -856,7 +775,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -866,17 +785,17 @@
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="2"/>
+      <c r="D18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <f aca="false">(E18/(E18+F18))</f>
         <v>1</v>
       </c>
       <c r="H18" s="5"/>
@@ -899,7 +818,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -909,17 +828,17 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="2"/>
+      <c r="D19" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <f aca="false">(E19/(E19+F19))</f>
         <v>1</v>
       </c>
       <c r="H19" s="5"/>
@@ -942,7 +861,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -952,18 +871,18 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F20" s="3">
-        <f>D20-E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="2"/>
+      <c r="D20" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <f aca="false">D20-E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <f aca="false">(E20/(E20+F20))</f>
         <v>1</v>
       </c>
       <c r="H20" s="5"/>
@@ -986,7 +905,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -996,17 +915,17 @@
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="2"/>
+      <c r="D21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <f aca="false">(E21/(E21+F21))</f>
         <v>1</v>
       </c>
       <c r="H21" s="5"/>
@@ -1029,7 +948,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1039,17 +958,17 @@
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="2"/>
+      <c r="D22" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <f aca="false">(E22/(E22+F22))</f>
         <v>1</v>
       </c>
       <c r="H22" s="5"/>
@@ -1072,7 +991,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1082,17 +1001,17 @@
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="2"/>
+      <c r="D23" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <f aca="false">(E23/(E23+F23))</f>
         <v>1</v>
       </c>
       <c r="H23" s="5"/>
@@ -1115,7 +1034,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1125,17 +1044,17 @@
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="2"/>
+      <c r="D24" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <f aca="false">(E24/(E24+F24))</f>
         <v>1</v>
       </c>
       <c r="H24" s="5"/>
@@ -1158,7 +1077,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1168,17 +1087,17 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="2"/>
+      <c r="D25" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <f aca="false">(E25/(E25+F25))</f>
         <v>1</v>
       </c>
       <c r="H25" s="5"/>
@@ -1201,7 +1120,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1211,17 +1130,17 @@
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="2"/>
+      <c r="D26" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <f aca="false">(E26/(E26+F26))</f>
         <v>1</v>
       </c>
       <c r="H26" s="5"/>
@@ -1244,7 +1163,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -1254,17 +1173,17 @@
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="2"/>
+      <c r="D27" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <f aca="false">(E27/(E27+F27))</f>
         <v>1</v>
       </c>
       <c r="H27" s="5"/>
@@ -1287,7 +1206,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1297,17 +1216,17 @@
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="2"/>
+      <c r="D28" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <f aca="false">(E28/(E28+F28))</f>
         <v>1</v>
       </c>
       <c r="H28" s="5"/>
@@ -1330,7 +1249,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1340,17 +1259,17 @@
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="2"/>
+      <c r="D29" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <f aca="false">(E29/(E29+F29))</f>
         <v>1</v>
       </c>
       <c r="H29" s="5"/>
@@ -1373,7 +1292,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -1383,17 +1302,17 @@
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="2"/>
+      <c r="D30" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <f aca="false">(E30/(E30+F30))</f>
         <v>1</v>
       </c>
       <c r="H30" s="5"/>
@@ -1416,7 +1335,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -1426,18 +1345,18 @@
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F31" s="3">
-        <f>D31-E31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="2"/>
+      <c r="D31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <f aca="false">D31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <f aca="false">(E31/(E31+F31))</f>
         <v>1</v>
       </c>
       <c r="H31" s="5"/>
@@ -1460,7 +1379,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1470,17 +1389,17 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="2"/>
+      <c r="D32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <f aca="false">(E32/(E32+F32))</f>
         <v>1</v>
       </c>
       <c r="H32" s="5"/>
@@ -1503,7 +1422,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1513,17 +1432,17 @@
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="2"/>
+      <c r="D33" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <f aca="false">(E33/(E33+F33))</f>
         <v>1</v>
       </c>
       <c r="H33" s="5"/>
@@ -1546,7 +1465,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -1556,18 +1475,18 @@
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" ref="F34:F35" si="3">D34-E34</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="2"/>
+      <c r="D34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <f aca="false">D34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <f aca="false">(E34/(E34+F34))</f>
         <v>1</v>
       </c>
       <c r="H34" s="5"/>
@@ -1590,7 +1509,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1600,18 +1519,18 @@
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="2"/>
+      <c r="D35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <f aca="false">D35-E35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <f aca="false">(E35/(E35+F35))</f>
         <v>1</v>
       </c>
       <c r="H35" s="5"/>
@@ -1634,7 +1553,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -1644,17 +1563,17 @@
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="2"/>
+      <c r="D36" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <f aca="false">(E36/(E36+F36))</f>
         <v>1</v>
       </c>
       <c r="H36" s="5"/>
@@ -1677,7 +1596,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
@@ -1687,17 +1606,17 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="2"/>
+      <c r="D37" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <f aca="false">(E37/(E37+F37))</f>
         <v>1</v>
       </c>
       <c r="H37" s="5"/>
@@ -1720,7 +1639,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
@@ -1730,17 +1649,17 @@
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="2"/>
+      <c r="D38" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <f aca="false">(E38/(E38+F38))</f>
         <v>1</v>
       </c>
       <c r="H38" s="5"/>
@@ -1763,7 +1682,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
@@ -1773,18 +1692,18 @@
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" ref="F39:F40" si="4">D39-E39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="2"/>
+      <c r="D39" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <f aca="false">D39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <f aca="false">(E39/(E39+F39))</f>
         <v>1</v>
       </c>
       <c r="H39" s="5"/>
@@ -1807,7 +1726,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
@@ -1817,18 +1736,18 @@
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="2"/>
+      <c r="D40" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <f aca="false">D40-E40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <f aca="false">(E40/(E40+F40))</f>
         <v>1</v>
       </c>
       <c r="H40" s="5"/>
@@ -1851,9 +1770,9 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>10</v>
@@ -1861,17 +1780,17 @@
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="2"/>
+      <c r="D41" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <f aca="false">(E41/(E41+F41))</f>
         <v>1</v>
       </c>
       <c r="H41" s="5"/>
@@ -1894,9 +1813,9 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -1904,17 +1823,17 @@
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="2"/>
+      <c r="D42" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <f aca="false">(E42/(E42+F42))</f>
         <v>1</v>
       </c>
       <c r="H42" s="5"/>
@@ -1937,7 +1856,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
@@ -1947,17 +1866,17 @@
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="2"/>
+      <c r="D43" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <f aca="false">(E43/(E43+F43))</f>
         <v>1</v>
       </c>
       <c r="H43" s="5"/>
@@ -1980,7 +1899,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
@@ -1990,18 +1909,18 @@
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" ref="F44:F47" si="5">D44-E44</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="2"/>
+      <c r="D44" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <f aca="false">D44-E44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <f aca="false">(E44/(E44+F44))</f>
         <v>1</v>
       </c>
       <c r="H44" s="5"/>
@@ -2024,7 +1943,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
@@ -2034,18 +1953,18 @@
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="2"/>
+      <c r="D45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <f aca="false">D45-E45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <f aca="false">(E45/(E45+F45))</f>
         <v>1</v>
       </c>
       <c r="H45" s="5"/>
@@ -2068,7 +1987,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2078,18 +1997,18 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="2"/>
+      <c r="D46" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <f aca="false">D46-E46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <f aca="false">(E46/(E46+F46))</f>
         <v>1</v>
       </c>
       <c r="H46" s="5"/>
@@ -2112,7 +2031,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2122,18 +2041,18 @@
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="2"/>
+      <c r="D47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <f aca="false">D47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <f aca="false">(E47/(E47+F47))</f>
         <v>1</v>
       </c>
       <c r="H47" s="5"/>
@@ -2156,7 +2075,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2166,17 +2085,17 @@
       <c r="C48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="2"/>
+      <c r="D48" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <f aca="false">(E48/(E48+F48))</f>
         <v>1</v>
       </c>
       <c r="H48" s="5"/>
@@ -2199,7 +2118,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2209,18 +2128,18 @@
       <c r="C49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" ref="F49:F51" si="6">D49-E49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="2"/>
+      <c r="D49" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <f aca="false">D49-E49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <f aca="false">(E49/(E49+F49))</f>
         <v>1</v>
       </c>
       <c r="H49" s="5"/>
@@ -2243,7 +2162,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
@@ -2253,18 +2172,18 @@
       <c r="C50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="2"/>
+      <c r="D50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <f aca="false">D50-E50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <f aca="false">(E50/(E50+F50))</f>
         <v>1</v>
       </c>
       <c r="H50" s="5"/>
@@ -2287,7 +2206,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
@@ -2297,19 +2216,19 @@
       <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="6"/>
+      <c r="D51" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <f aca="false">D51-E51</f>
         <v>-5</v>
       </c>
-      <c r="G51" s="4">
-        <f t="shared" si="2"/>
-        <v>1.333333333</v>
+      <c r="G51" s="4" t="n">
+        <f aca="false">(E51/(E51+F51))</f>
+        <v>1.33333333333333</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -2331,7 +2250,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2341,17 +2260,17 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="2"/>
+      <c r="D52" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <f aca="false">(E52/(E52+F52))</f>
         <v>1</v>
       </c>
       <c r="H52" s="5"/>
@@ -2374,7 +2293,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
@@ -2384,17 +2303,17 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="2"/>
+      <c r="D53" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <f aca="false">(E53/(E53+F53))</f>
         <v>1</v>
       </c>
       <c r="H53" s="5"/>
@@ -2417,7 +2336,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2427,17 +2346,17 @@
       <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G54" s="4">
-        <f t="shared" si="2"/>
+      <c r="D54" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <f aca="false">(E54/(E54+F54))</f>
         <v>1</v>
       </c>
       <c r="H54" s="5"/>
@@ -2460,7 +2379,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
@@ -2470,17 +2389,17 @@
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="4">
-        <f t="shared" si="2"/>
+      <c r="D55" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <f aca="false">(E55/(E55+F55))</f>
         <v>1</v>
       </c>
       <c r="H55" s="5"/>
@@ -2503,7 +2422,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -2513,17 +2432,17 @@
       <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G56" s="4">
-        <f t="shared" si="2"/>
+      <c r="D56" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <f aca="false">(E56/(E56+F56))</f>
         <v>1</v>
       </c>
       <c r="H56" s="5"/>
@@ -2546,7 +2465,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2556,17 +2475,17 @@
       <c r="C57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G57" s="4">
-        <f t="shared" si="2"/>
+      <c r="D57" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <f aca="false">(E57/(E57+F57))</f>
         <v>1</v>
       </c>
       <c r="H57" s="5"/>
@@ -2589,7 +2508,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -2599,18 +2518,18 @@
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F58" s="3">
-        <f>D58-E58</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="2"/>
+      <c r="D58" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <f aca="false">D58-E58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <f aca="false">(E58/(E58+F58))</f>
         <v>1</v>
       </c>
       <c r="H58" s="5"/>
@@ -2633,7 +2552,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>25</v>
       </c>
@@ -2643,17 +2562,17 @@
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G59" s="4">
-        <f t="shared" si="2"/>
+      <c r="D59" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <f aca="false">(E59/(E59+F59))</f>
         <v>1</v>
       </c>
       <c r="H59" s="5"/>
@@ -2676,7 +2595,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -2686,17 +2605,17 @@
       <c r="C60" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G60" s="4">
-        <f t="shared" si="2"/>
+      <c r="D60" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <f aca="false">(E60/(E60+F60))</f>
         <v>1</v>
       </c>
       <c r="H60" s="5"/>
@@ -2719,7 +2638,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>25</v>
       </c>
@@ -2729,18 +2648,18 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" ref="F61:F66" si="7">D61-E61</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <f t="shared" si="2"/>
+      <c r="D61" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <f aca="false">D61-E61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <f aca="false">(E61/(E61+F61))</f>
         <v>1</v>
       </c>
       <c r="H61" s="5"/>
@@ -2763,7 +2682,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
@@ -2773,18 +2692,18 @@
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <f t="shared" si="2"/>
+      <c r="D62" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <f aca="false">D62-E62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <f aca="false">(E62/(E62+F62))</f>
         <v>1</v>
       </c>
       <c r="H62" s="5"/>
@@ -2807,7 +2726,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>25</v>
       </c>
@@ -2817,19 +2736,19 @@
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="7"/>
+      <c r="D63" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <f aca="false">D63-E63</f>
         <v>-5</v>
       </c>
-      <c r="G63" s="4">
-        <f t="shared" si="2"/>
-        <v>1.333333333</v>
+      <c r="G63" s="4" t="n">
+        <f aca="false">(E63/(E63+F63))</f>
+        <v>1.33333333333333</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -2851,7 +2770,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
@@ -2861,18 +2780,18 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" si="7"/>
+      <c r="D64" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G64" s="4">
-        <f t="shared" si="2"/>
+      <c r="E64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <f aca="false">D64-E64</f>
+        <v>30</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <f aca="false">(E64/(E64+F64))</f>
         <v>0</v>
       </c>
       <c r="H64" s="5"/>
@@ -2895,7 +2814,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>16</v>
       </c>
@@ -2905,18 +2824,18 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" si="7"/>
+      <c r="D65" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G65" s="4">
-        <f t="shared" si="2"/>
+      <c r="E65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <f aca="false">D65-E65</f>
+        <v>30</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <f aca="false">(E65/(E65+F65))</f>
         <v>0</v>
       </c>
       <c r="H65" s="5"/>
@@ -2939,7 +2858,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2949,18 +2868,18 @@
       <c r="C66" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" si="7"/>
+      <c r="D66" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G66" s="4">
-        <f t="shared" si="2"/>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <f aca="false">D66-E66</f>
+        <v>30</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <f aca="false">(E66/(E66+F66))</f>
         <v>0</v>
       </c>
       <c r="H66" s="5"/>
@@ -2983,25 +2902,25 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3">
-        <f t="shared" ref="D67:F67" si="8">SUM(D9:D66)</f>
+      <c r="D67" s="3" t="n">
+        <f aca="false">SUM(D9:D66)</f>
         <v>1310</v>
       </c>
-      <c r="E67" s="3">
-        <f t="shared" si="8"/>
+      <c r="E67" s="3" t="n">
+        <f aca="false">SUM(E9:E66)</f>
         <v>1310</v>
       </c>
-      <c r="F67" s="3">
-        <f t="shared" si="8"/>
+      <c r="F67" s="3" t="n">
+        <f aca="false">SUM(F9:F66)</f>
         <v>80</v>
       </c>
-      <c r="G67" s="7">
-        <f t="shared" si="2"/>
-        <v>0.9424460432</v>
+      <c r="G67" s="6" t="n">
+        <f aca="false">(E67/(E67+F67))</f>
+        <v>0.942446043165468</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -3021,7 +2940,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -3040,7 +2959,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -3059,7 +2978,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -3078,7 +2997,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -3097,7 +3016,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -3116,7 +3035,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -3135,7 +3054,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -3154,7 +3073,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -3173,7 +3092,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -3192,7 +3111,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -3211,7 +3130,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -3230,7 +3149,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -3249,7 +3168,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -3268,7 +3187,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -3287,7 +3206,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -3306,7 +3225,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -3325,7 +3244,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -3344,7 +3263,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
@@ -3363,7 +3282,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -3382,7 +3301,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
@@ -3401,7 +3320,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
@@ -3420,7 +3339,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -3439,7 +3358,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -3458,7 +3377,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -3477,7 +3396,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -3496,7 +3415,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -3515,7 +3434,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
@@ -3534,7 +3453,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -3553,7 +3472,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -3572,7 +3491,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
@@ -3591,7 +3510,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
@@ -3610,7 +3529,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -3629,7 +3548,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -3648,7 +3567,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -3667,7 +3586,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -3686,7 +3605,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -3705,7 +3624,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -3724,7 +3643,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -3743,7 +3662,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -3762,7 +3681,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -3781,7 +3700,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -3800,7 +3719,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -3819,7 +3738,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -3838,7 +3757,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
@@ -3857,7 +3776,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -3876,7 +3795,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -3895,7 +3814,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -3914,7 +3833,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -3933,7 +3852,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -3952,7 +3871,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -3971,7 +3890,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -3990,7 +3909,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -4009,894 +3928,897 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
   <si>
     <t xml:space="preserve">Nom: RAMALALAHARISON Tokiniaina</t>
   </si>
@@ -106,28 +106,34 @@
     <t xml:space="preserve">Liste des travaux a effectue </t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion de recettes (ajout recette)</t>
+    <t xml:space="preserve">tableau de bord, Le montant total des devis</t>
   </si>
   <si>
-    <t xml:space="preserve">Affichage des recettes </t>
+    <t xml:space="preserve">Histogramme des montant des devis par mois et année</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiche des recettes</t>
+    <t xml:space="preserve">Pourcentage payement effectué</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajout des produits dans le panier (panier coté base)</t>
+    <t xml:space="preserve">tableau de bord, Le montant total de paiement effectué</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajout des recettes dans le panier (avec conditionnement)</t>
+    <t xml:space="preserve">CRUD type de travaux</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistiques de vente produit</t>
+    <t xml:space="preserve">CRUD finition</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistiques de vente recette</t>
+    <t xml:space="preserve">validation AJAX lors du paiement </t>
   </si>
   <si>
-    <t xml:space="preserve">Paiement panier</t>
+    <t xml:space="preserve">Importation CSV travaux_maison et devis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importation CSV payement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouton Reinitialisation de la base</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -175,6 +181,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +271,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -342,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38:B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +429,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="n">
-        <f aca="false">D9-E9</f>
+        <f aca="false">IF(D9-E9&lt;0,0,D9-E9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="5" t="n">
@@ -447,13 +467,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="n">
-        <f aca="false">D10-E10</f>
+        <f aca="false">IF(D10-E10&lt;0,0,D10-E10)</f>
         <v>0</v>
       </c>
       <c r="G10" s="5" t="n">
@@ -495,6 +515,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="n">
+        <f aca="false">IF(D11-E11&lt;0,0,D11-E11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
@@ -523,9 +544,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
@@ -536,6 +555,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="n">
+        <f aca="false">IF(D12-E12&lt;0,0,D12-E12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
@@ -564,9 +584,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
@@ -577,6 +595,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="n">
+        <f aca="false">IF(D13-E13&lt;0,0,D13-E13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="5" t="n">
@@ -614,12 +633,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="4" t="n">
+        <f aca="false">IF(D14-E14&lt;0,0,D14-E14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
@@ -650,9 +670,7 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -663,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="4" t="n">
-        <f aca="false">D15-E15</f>
+        <f aca="false">IF(D15-E15&lt;0,0,D15-E15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="5" t="n">
@@ -694,19 +712,18 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="n">
+        <f aca="false">IF(D16-E16&lt;0,0,D16-E16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="5" t="n">
@@ -746,13 +763,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="n">
-        <f aca="false">D17-E17</f>
+        <f aca="false">IF(D17-E17&lt;0,0,D17-E17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
@@ -783,19 +800,18 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="n">
+        <f aca="false">IF(D18-E18&lt;0,0,D18-E18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
@@ -826,19 +842,18 @@
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="n">
+        <f aca="false">IF(D19-E19&lt;0,0,D19-E19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
@@ -882,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="4" t="n">
-        <f aca="false">D20-E20</f>
+        <f aca="false">IF(D20-E20&lt;0,0,D20-E20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
@@ -913,19 +928,18 @@
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>25</v>
-      </c>
       <c r="F21" s="4" t="n">
+        <f aca="false">IF(D21-E21&lt;0,0,D21-E21)</f>
         <v>0</v>
       </c>
       <c r="G21" s="5" t="n">
@@ -956,9 +970,7 @@
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
@@ -969,6 +981,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="4" t="n">
+        <f aca="false">IF(D22-E22&lt;0,0,D22-E22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="5" t="n">
@@ -1006,12 +1019,13 @@
         <v>11</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="4" t="n">
+        <f aca="false">IF(D23-E23&lt;0,0,D23-E23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
@@ -1042,9 +1056,7 @@
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1052,9 +1064,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="n">
+        <f aca="false">IF(D24-E24&lt;0,0,D24-E24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
@@ -1085,19 +1098,18 @@
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>10</v>
       </c>
       <c r="F25" s="4" t="n">
+        <f aca="false">IF(D25-E25&lt;0,0,D25-E25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="5" t="n">
@@ -1141,6 +1153,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="n">
+        <f aca="false">IF(D26-E26&lt;0,0,D26-E26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
@@ -1171,19 +1184,18 @@
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F27" s="4" t="n">
+        <f aca="false">IF(D27-E27&lt;0,0,D27-E27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="5" t="n">
@@ -1214,19 +1226,18 @@
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F28" s="4" t="n">
+        <f aca="false">IF(D28-E28&lt;0,0,D28-E28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="5" t="n">
@@ -1264,12 +1275,13 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>15</v>
       </c>
       <c r="F29" s="4" t="n">
+        <f aca="false">IF(D29-E29&lt;0,0,D29-E29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
@@ -1300,19 +1312,18 @@
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="F30" s="4" t="n">
+        <f aca="false">IF(D30-E30&lt;0,0,D30-E30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
@@ -1343,9 +1354,7 @@
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1353,10 +1362,10 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F31" s="4" t="n">
-        <f aca="false">D31-E31</f>
+        <f aca="false">IF(D31-E31&lt;0,0,D31-E31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="5" t="n">
@@ -1397,9 +1406,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32" s="4" t="n">
+        <f aca="false">IF(D32-E32&lt;0,0,D32-E32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="5" t="n">
@@ -1430,9 +1440,7 @@
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
@@ -1440,9 +1448,10 @@
         <v>20</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F33" s="4" t="n">
+        <f aca="false">IF(D33-E33&lt;0,0,D33-E33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="5" t="n">
@@ -1473,9 +1482,7 @@
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="4" t="n">
-        <f aca="false">D34-E34</f>
+        <f aca="false">IF(D34-E34&lt;0,0,D34-E34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="5" t="n">
@@ -1530,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="4" t="n">
-        <f aca="false">D35-E35</f>
+        <f aca="false">IF(D35-E35&lt;0,0,D35-E35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="5" t="n">
@@ -1561,19 +1568,18 @@
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4" t="n">
+        <f aca="false">IF(D36-E36&lt;0,0,D36-E36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
@@ -1604,9 +1610,7 @@
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
@@ -1617,6 +1621,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="4" t="n">
+        <f aca="false">IF(D37-E37&lt;0,0,D37-E37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="5" t="n">
@@ -1657,9 +1662,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4" t="n">
+        <f aca="false">IF(D38-E38&lt;0,0,D38-E38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="5" t="n">
@@ -1690,9 +1696,7 @@
       <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="4" t="n">
-        <f aca="false">D39-E39</f>
+        <f aca="false">IF(D39-E39&lt;0,0,D39-E39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="5" t="n">
@@ -1734,9 +1738,7 @@
       <c r="A40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="4" t="n">
-        <f aca="false">D40-E40</f>
+        <f aca="false">IF(D40-E40&lt;0,0,D40-E40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="5" t="n">
@@ -1779,18 +1781,19 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F41" s="4" t="n">
+        <f aca="false">IF(D41-E41&lt;0,0,D41-E41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="5" t="n">
@@ -1821,19 +1824,18 @@
       <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4" t="n">
+        <f aca="false">IF(D42-E42&lt;0,0,D42-E42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
@@ -1864,19 +1866,18 @@
       <c r="A43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F43" s="4" t="n">
+        <f aca="false">IF(D43-E43&lt;0,0,D43-E43)</f>
         <v>0</v>
       </c>
       <c r="G43" s="5" t="n">
@@ -1908,19 +1909,19 @@
         <v>25</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F44" s="4" t="n">
-        <f aca="false">D44-E44</f>
+        <f aca="false">IF(D44-E44&lt;0,0,D44-E44)</f>
         <v>0</v>
       </c>
       <c r="G44" s="5" t="n">
@@ -1951,20 +1952,18 @@
       <c r="A45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45" s="4" t="n">
-        <f aca="false">D45-E45</f>
+        <f aca="false">IF(D45-E45&lt;0,0,D45-E45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="5" t="n">
@@ -1993,22 +1992,20 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F46" s="4" t="n">
-        <f aca="false">D46-E46</f>
+        <f aca="false">IF(D46-E46&lt;0,0,D46-E46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="5" t="n">
@@ -2036,29 +2033,13 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <f aca="false">D47-E47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="n">
-        <f aca="false">(E47/(E47+F47))</f>
-        <v>1</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2081,21 +2062,22 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48" s="4" t="n">
+        <f aca="false">IF(D48-E48&lt;0,0,D48-E48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="5" t="n">
@@ -2124,22 +2106,20 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F49" s="4" t="n">
-        <f aca="false">D49-E49</f>
+        <f aca="false">IF(D49-E49&lt;0,0,D49-E49)</f>
         <v>0</v>
       </c>
       <c r="G49" s="5" t="n">
@@ -2168,22 +2148,20 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F50" s="4" t="n">
-        <f aca="false">D50-E50</f>
+        <f aca="false">IF(D50-E50&lt;0,0,D50-E50)</f>
         <v>0</v>
       </c>
       <c r="G50" s="5" t="n">
@@ -2212,27 +2190,27 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F51" s="4" t="n">
-        <f aca="false">D51-E51</f>
-        <v>-5</v>
+        <f aca="false">IF(D51-E51&lt;0,0,D51-E51)</f>
+        <v>0</v>
       </c>
       <c r="G51" s="5" t="n">
         <f aca="false">(E51/(E51+F51))</f>
-        <v>1.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2256,21 +2234,20 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F52" s="4" t="n">
+        <f aca="false">IF(D52-E52&lt;0,0,D52-E52)</f>
         <v>0</v>
       </c>
       <c r="G52" s="5" t="n">
@@ -2299,21 +2276,20 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="F53" s="4" t="n">
+        <f aca="false">IF(D53-E53&lt;0,0,D53-E53)</f>
         <v>0</v>
       </c>
       <c r="G53" s="5" t="n">
@@ -2342,21 +2318,22 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F54" s="4" t="n">
+        <f aca="false">IF(D54-E54&lt;0,0,D54-E54)</f>
         <v>0</v>
       </c>
       <c r="G54" s="5" t="n">
@@ -2385,21 +2362,20 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F55" s="4" t="n">
+        <f aca="false">IF(D55-E55&lt;0,0,D55-E55)</f>
         <v>0</v>
       </c>
       <c r="G55" s="5" t="n">
@@ -2428,21 +2404,20 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F56" s="4" t="n">
+        <f aca="false">IF(D56-E56&lt;0,0,D56-E56)</f>
         <v>0</v>
       </c>
       <c r="G56" s="5" t="n">
@@ -2471,21 +2446,22 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F57" s="4" t="n">
+        <f aca="false">IF(D57-E57&lt;0,0,D57-E57)</f>
         <v>0</v>
       </c>
       <c r="G57" s="5" t="n">
@@ -2516,20 +2492,18 @@
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F58" s="4" t="n">
-        <f aca="false">D58-E58</f>
+        <f aca="false">IF(D58-E58&lt;0,0,D58-E58)</f>
         <v>0</v>
       </c>
       <c r="G58" s="5" t="n">
@@ -2560,19 +2534,18 @@
       <c r="A59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F59" s="4" t="n">
+        <f aca="false">IF(D59-E59&lt;0,0,D59-E59)</f>
         <v>0</v>
       </c>
       <c r="G59" s="5" t="n">
@@ -2600,22 +2573,21 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4" t="n">
+        <f aca="false">IF(D60-E60&lt;0,0,D60-E60)</f>
         <v>0</v>
       </c>
       <c r="G60" s="5" t="n">
@@ -2643,23 +2615,19 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F61" s="4" t="n">
-        <f aca="false">D61-E61</f>
+        <f aca="false">IF(D61-E61&lt;0,0,D61-E61)</f>
         <v>0</v>
       </c>
       <c r="G61" s="5" t="n">
@@ -2687,23 +2655,19 @@
       <c r="Z61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F62" s="4" t="n">
-        <f aca="false">D62-E62</f>
+        <f aca="false">IF(D62-E62&lt;0,0,D62-E62)</f>
         <v>0</v>
       </c>
       <c r="G62" s="5" t="n">
@@ -2731,28 +2695,26 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F63" s="4" t="n">
-        <f aca="false">D63-E63</f>
-        <v>-5</v>
+        <f aca="false">IF(D63-E63&lt;0,0,D63-E63)</f>
+        <v>0</v>
       </c>
       <c r="G63" s="5" t="n">
         <f aca="false">(E63/(E63+F63))</f>
-        <v>1.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -2775,28 +2737,24 @@
       <c r="Z63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F64" s="4" t="n">
-        <f aca="false">D64-E64</f>
-        <v>30</v>
+        <f aca="false">IF(D64-E64&lt;0,0,D64-E64)</f>
+        <v>0</v>
       </c>
       <c r="G64" s="5" t="n">
         <f aca="false">(E64/(E64+F64))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -2819,28 +2777,24 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F65" s="4" t="n">
-        <f aca="false">D65-E65</f>
-        <v>30</v>
+        <f aca="false">IF(D65-E65&lt;0,0,D65-E65)</f>
+        <v>0</v>
       </c>
       <c r="G65" s="5" t="n">
         <f aca="false">(E65/(E65+F65))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -2863,28 +2817,26 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4" t="n">
-        <f aca="false">D66-E66</f>
-        <v>30</v>
+        <f aca="false">IF(D66-E66&lt;0,0,D66-E66)</f>
+        <v>9</v>
       </c>
       <c r="G66" s="5" t="n">
         <f aca="false">(E66/(E66+F66))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -2909,23 +2861,25 @@
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D67" s="4" t="n">
-        <f aca="false">SUM(D9:D66)</f>
-        <v>1310</v>
+        <v>15</v>
       </c>
       <c r="E67" s="4" t="n">
-        <f aca="false">SUM(E9:E66)</f>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <f aca="false">SUM(F9:F66)</f>
-        <v>80</v>
-      </c>
-      <c r="G67" s="7" t="n">
+        <f aca="false">IF(D67-E67&lt;0,0,D67-E67)</f>
+        <v>15</v>
+      </c>
+      <c r="G67" s="5" t="n">
         <f aca="false">(E67/(E67+F67))</f>
-        <v>0.942446043165468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -2945,6 +2899,27 @@
       <c r="Z67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <f aca="false">IF(D68-E68&lt;0,0,D68-E68)</f>
+        <v>60</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <f aca="false">(E68/(E68+F68))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -2964,6 +2939,29 @@
       <c r="Z68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <f aca="false">IF(D69-E69&lt;0,0,D69-E69)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <f aca="false">(E69/(E69+F69))</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -2983,6 +2981,27 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4" t="n">
+        <f aca="false">IF(D70-E70&lt;0,0,D70-E70)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <f aca="false">(E70/(E70+F70))</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -3002,6 +3021,27 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <f aca="false">IF(D71-E71&lt;0,0,D71-E71)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <f aca="false">(E71/(E71+F71))</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -3021,6 +3061,22 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="n">
+        <f aca="false">SUM(D9:D71)</f>
+        <v>1028</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <f aca="false">SUM(E9:E71)</f>
+        <v>1135</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="9" t="n">
+        <f aca="false">AVERAGE(G$9:G$71)</f>
+        <v>0.961290322580645</v>
+      </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -3932,11 +3988,101 @@
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="6"/>
+      <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="6"/>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="6"/>
+      <c r="W123" s="6"/>
+      <c r="X123" s="6"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="6"/>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="6"/>
+    </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4816,6 +4962,11 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
